--- a/data/trans_camb/P43-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P43-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,91</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,57; 20,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,65; 22,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,61; 20,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,57; 20,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,65; 22,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,61; 20,99</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,54%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,75; 44,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,12; 48,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,71; 45,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,75; 44,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,12; 48,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,71; 45,31</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,84</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,84</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 10,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,85; 16,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,26; 30,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 10,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,85; 16,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,26; 30,95</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,76%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,86; 36,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,65; 58,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,66; 104,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,86; 36,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,65; 58,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,66; 104,03</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,14</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,0; 5,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 15,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,01; 28,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,0; 5,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 15,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,01; 28,48</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,68%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,97; 18,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,77; 48,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,27; 88,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,97; 18,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,77; 48,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,27; 88,78</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,48</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 11,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,87; 14,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,37; 22,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 11,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,87; 14,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,37; 22,89</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,49%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,66; 32,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,29; 39,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,31; 61,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,66; 32,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,29; 39,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,31; 61,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43-Estudios-trans_camb.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,91</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,91</t>
+          <t>17,4</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 20,99</t>
+          <t>13,24; 21,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 20,99</t>
+          <t>13,24; 21,38</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>36,58%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,71; 45,31</t>
+          <t>26,17; 46,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,71; 45,31</t>
+          <t>26,17; 46,61</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,84</t>
+          <t>21,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,84</t>
+          <t>21,72</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 30,95</t>
+          <t>13,53; 38,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 30,95</t>
+          <t>13,53; 38,98</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>71,19%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,66; 104,03</t>
+          <t>44,79; 135,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,66; 104,03</t>
+          <t>44,79; 135,71</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,14</t>
+          <t>22,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,14</t>
+          <t>22,06</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,01; 28,48</t>
+          <t>15,8; 28,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,01; 28,48</t>
+          <t>15,8; 28,28</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>61,45%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,27; 88,78</t>
+          <t>40,18; 88,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,27; 88,78</t>
+          <t>40,18; 88,4</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>18,02</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 22,89</t>
+          <t>12,84; 27,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 22,89</t>
+          <t>12,84; 27,98</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>47,55%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,31; 61,4</t>
+          <t>33,36; 76,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,31; 61,4</t>
+          <t>33,36; 76,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43-Estudios-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,57; 20,23</t>
+          <t>12,13; 19,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 22,39</t>
+          <t>13,78; 22,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,38</t>
+          <t>13,03; 21,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,57; 20,23</t>
+          <t>12,13; 19,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 22,39</t>
+          <t>13,78; 22,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,38</t>
+          <t>13,03; 21,3</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,75; 44,56</t>
+          <t>24,25; 43,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,12; 48,86</t>
+          <t>27,64; 48,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,17; 46,61</t>
+          <t>26,02; 46,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,75; 44,56</t>
+          <t>24,25; 43,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,12; 48,86</t>
+          <t>27,64; 48,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,17; 46,61</t>
+          <t>26,02; 46,55</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,31</t>
+          <t>3,86; 10,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 16,74</t>
+          <t>9,38; 16,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 38,98</t>
+          <t>13,01; 38,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,31</t>
+          <t>3,86; 10,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 16,74</t>
+          <t>9,38; 16,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 38,98</t>
+          <t>13,01; 38,46</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 36,23</t>
+          <t>12,29; 37,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,65; 58,44</t>
+          <t>29,01; 56,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,79; 135,71</t>
+          <t>41,87; 134,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 36,23</t>
+          <t>12,29; 37,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,65; 58,44</t>
+          <t>29,01; 56,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,79; 135,71</t>
+          <t>41,87; 134,47</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 5,81</t>
+          <t>-8,07; 5,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 15,68</t>
+          <t>3,48; 15,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,8; 28,28</t>
+          <t>16,27; 28,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 5,81</t>
+          <t>-8,07; 5,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 15,68</t>
+          <t>3,48; 15,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,8; 28,28</t>
+          <t>16,27; 28,05</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 18,33</t>
+          <t>-21,17; 17,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 48,76</t>
+          <t>8,64; 48,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,18; 88,4</t>
+          <t>40,42; 85,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 18,33</t>
+          <t>-21,17; 17,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 48,76</t>
+          <t>8,64; 48,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,18; 88,4</t>
+          <t>40,42; 85,91</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,68</t>
+          <t>6,7; 11,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 14,55</t>
+          <t>9,47; 14,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,84; 27,98</t>
+          <t>13,19; 29,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,68</t>
+          <t>6,7; 11,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 14,55</t>
+          <t>9,47; 14,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,84; 27,98</t>
+          <t>13,19; 29,38</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,66; 32,1</t>
+          <t>17,12; 31,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,29; 39,68</t>
+          <t>23,82; 38,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,36; 76,21</t>
+          <t>34,37; 77,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,66; 32,1</t>
+          <t>17,12; 31,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,29; 39,68</t>
+          <t>23,82; 38,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>33,36; 76,21</t>
+          <t>34,37; 77,61</t>
         </is>
       </c>
     </row>
